--- a/CLAGN_outlier_flux.xlsx
+++ b/CLAGN_outlier_flux.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Dropbox\University\University Work\Fourth Year\Project\Level-4-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Dropbox\University\University Work\Fourth Year\Project\New_project_repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBC7CDF-7A6E-4C33-A93B-C9DCFAADDF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C483F7C-1C8C-4584-B1F6-F522F97718B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7280CFF8-AA96-4058-87A7-8678678C4FD7}"/>
   </bookViews>
@@ -62,13 +62,13 @@
     <t>152551.37+184552.0</t>
   </si>
   <si>
-    <t xml:space="preserve">160337.12+242513.9 </t>
-  </si>
-  <si>
     <t>164709.87+532202.2</t>
   </si>
   <si>
     <t>213400.68+013828.4</t>
+  </si>
+  <si>
+    <t>160337.12+242513.9</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +513,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
